--- a/results-store-5.xlsx
+++ b/results-store-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/eh555_sussex_ac_uk/Documents/Documents/2-Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{EA543370-F99C-497C-8072-F8505FB0D74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6C9F15-9FCB-4A79-81D4-CF4D280509E5}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{EA543370-F99C-497C-8072-F8505FB0D74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C378907F-842B-490B-A38A-4B2D48481CB4}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="840" windowWidth="28650" windowHeight="14550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="195" windowWidth="28650" windowHeight="14550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train_per_model" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="test_per_K" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="111">
   <si>
     <t>layers</t>
   </si>
@@ -405,6 +406,9 @@
   </si>
   <si>
     <t>Rerun with chosen best model (2, lowest val loss) and with latest version of code</t>
+  </si>
+  <si>
+    <t>Run with Laptop, using proc.time()</t>
   </si>
 </sst>
 </file>
@@ -817,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1206"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
@@ -4484,7 +4488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -4495,7 +4499,10 @@
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
@@ -4506,29 +4513,107 @@
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-    </row>
-    <row r="117" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" t="s">
+        <v>6</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>708393.75</v>
+      </c>
+      <c r="F116">
+        <v>0.3</v>
+      </c>
+      <c r="G116">
+        <v>8.9228879218924903E-2</v>
+      </c>
+      <c r="H116">
+        <v>11.703319830504199</v>
+      </c>
+      <c r="I116">
+        <v>0.74202098643444303</v>
+      </c>
+      <c r="J116" s="3">
+        <v>441.41</v>
+      </c>
+      <c r="K116" s="3">
+        <v>10.632499999999901</v>
+      </c>
+      <c r="L116" s="2">
+        <v>2.3931876756250799E-2</v>
+      </c>
+      <c r="M116" s="2">
+        <v>2.4264552004008701E-2</v>
+      </c>
+      <c r="N116" s="2">
+        <v>1.25669742076844E-4</v>
+      </c>
+      <c r="O116" s="2">
+        <v>8.4068830076238806E-5</v>
+      </c>
+      <c r="P116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
@@ -4539,7 +4624,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
@@ -4550,7 +4635,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119"/>
@@ -4561,7 +4646,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -4572,7 +4657,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -4583,7 +4668,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
@@ -4594,7 +4679,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -4605,7 +4690,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -4616,7 +4701,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
@@ -4627,7 +4712,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
@@ -4638,7 +4723,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
@@ -4649,7 +4734,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -16527,10 +16612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N254"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
     <sheetView topLeftCell="A219" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:N254"/>
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25937,6 +26022,231 @@
         <v>85</v>
       </c>
     </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>3</v>
+      </c>
+      <c r="F257" t="s">
+        <v>4</v>
+      </c>
+      <c r="G257" t="s">
+        <v>5</v>
+      </c>
+      <c r="H257" t="s">
+        <v>6</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L257" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>708848</v>
+      </c>
+      <c r="E258">
+        <v>0.3</v>
+      </c>
+      <c r="F258">
+        <v>-0.113439446599716</v>
+      </c>
+      <c r="G258">
+        <v>11.84361805072</v>
+      </c>
+      <c r="H258">
+        <v>0.73843600467114301</v>
+      </c>
+      <c r="I258" s="3">
+        <v>109.689999999999</v>
+      </c>
+      <c r="J258" s="3">
+        <v>16.060000000000102</v>
+      </c>
+      <c r="K258" s="2">
+        <v>2.4013658985495501E-2</v>
+      </c>
+      <c r="L258" s="2">
+        <v>2.42557384820818E-2</v>
+      </c>
+      <c r="M258" s="2">
+        <v>1.74065704729601E-4</v>
+      </c>
+      <c r="N258" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>708156</v>
+      </c>
+      <c r="E259">
+        <v>0.3</v>
+      </c>
+      <c r="F259">
+        <v>0.36417368224512697</v>
+      </c>
+      <c r="G259">
+        <v>12.750638073487901</v>
+      </c>
+      <c r="H259">
+        <v>0.74890093753991904</v>
+      </c>
+      <c r="I259" s="3">
+        <v>105.42</v>
+      </c>
+      <c r="J259" s="3">
+        <v>9.0999999999999002</v>
+      </c>
+      <c r="K259" s="2">
+        <v>2.3975161835551199E-2</v>
+      </c>
+      <c r="L259" s="2">
+        <v>2.4337169761196001E-2</v>
+      </c>
+      <c r="M259" s="2">
+        <v>1.2470399384256401E-4</v>
+      </c>
+      <c r="N259" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>707833</v>
+      </c>
+      <c r="E260">
+        <v>0.3</v>
+      </c>
+      <c r="F260">
+        <v>0.20441720143874301</v>
+      </c>
+      <c r="G260">
+        <v>11.0612911685205</v>
+      </c>
+      <c r="H260">
+        <v>0.74149011007431298</v>
+      </c>
+      <c r="I260" s="3">
+        <v>113.969999999999</v>
+      </c>
+      <c r="J260" s="3">
+        <v>8.1900000000000492</v>
+      </c>
+      <c r="K260" s="2">
+        <v>2.3793734610080702E-2</v>
+      </c>
+      <c r="L260" s="2">
+        <v>2.4185411775425901E-2</v>
+      </c>
+      <c r="M260" s="2">
+        <v>8.4068830076238806E-5</v>
+      </c>
+      <c r="N260" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>708738</v>
+      </c>
+      <c r="E261">
+        <v>0.3</v>
+      </c>
+      <c r="F261">
+        <v>-9.8235920208455105E-2</v>
+      </c>
+      <c r="G261">
+        <v>11.1577320292884</v>
+      </c>
+      <c r="H261">
+        <v>0.73925689345239598</v>
+      </c>
+      <c r="I261" s="3">
+        <v>112.33</v>
+      </c>
+      <c r="J261" s="3">
+        <v>9.1799999999998292</v>
+      </c>
+      <c r="K261" s="2">
+        <v>2.3944951593875798E-2</v>
+      </c>
+      <c r="L261" s="2">
+        <v>2.42798879973312E-2</v>
+      </c>
+      <c r="M261" s="2">
+        <v>1.19840439658974E-4</v>
+      </c>
+      <c r="N261" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25946,10 +26256,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149088EA-EE89-4913-8BD8-AB9DFE4F2867}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+      <selection activeCell="A44" sqref="A44:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26960,6 +27270,111 @@
         <v>85</v>
       </c>
     </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>59534</v>
+      </c>
+      <c r="F45" s="2">
+        <v>8.4068830076238806E-5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>441.41</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.184960940022659</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.79816731399762997</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.99826994808994396</v>
+      </c>
+      <c r="K45" s="2">
+        <v>8.6243450169152004E-5</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.83700000000008001</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.35407645339687799</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1.03402678017396</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.679950326777089</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26968,10 +27383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA7905-EEB3-4C3A-B027-599D0122CD07}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28991,6 +29406,223 @@
         <v>85</v>
       </c>
     </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>59534</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8.4068830076238806E-5</v>
+      </c>
+      <c r="H63" s="6">
+        <v>441.41</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.184960940022659</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.79816731399762997</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.99826994808994396</v>
+      </c>
+      <c r="L63" s="2">
+        <v>8.6243450169152004E-5</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.83700000000008001</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.41386039372997002</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1.1142694930694499</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.70040909933948303</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>59534</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8.4068830076238806E-5</v>
+      </c>
+      <c r="H64" s="6">
+        <v>441.41</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.184960940022659</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.79816731399762997</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.99826994808994396</v>
+      </c>
+      <c r="L64" s="2">
+        <v>8.6243450169152004E-5</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.83700000000008001</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.365434857858214</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1.10953661314028</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.74410175528207101</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>59534</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8.4068830076238806E-5</v>
+      </c>
+      <c r="H65" s="6">
+        <v>441.41</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.184960940022659</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0.79816731399762997</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.99826994808994396</v>
+      </c>
+      <c r="L65" s="2">
+        <v>8.6243450169152004E-5</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0.83700000000008001</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.28293410860245</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0.878274234312163</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.59534012570971295</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
